--- a/Allfiles/M02-Project Workbook.xlsx
+++ b/Allfiles/M02-Project Workbook.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22430"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25928"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\ctcvso\MSFT - Solution Arch\Current\ILT\M02 Conceptualizing the design from requirements\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GitHub\Repos\PL-600-Microsoft-Power-Platform-Solution-Architect\Allfiles\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8055D7A0-5B9B-40D4-B1B5-DB39BF32BE13}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B45A0E3F-0994-4DB0-9593-2D1BF2C08339}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="27288" windowHeight="17664" activeTab="1" xr2:uid="{A7FE3A90-ABDE-4482-A392-34584F34D645}"/>
+    <workbookView xWindow="3900" yWindow="3900" windowWidth="26100" windowHeight="15345" activeTab="1" xr2:uid="{A7FE3A90-ABDE-4482-A392-34584F34D645}"/>
   </bookViews>
   <sheets>
     <sheet name="Architecture diagram" sheetId="2" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="62">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="55">
   <si>
     <t>Description</t>
   </si>
@@ -58,9 +58,6 @@
     <t>As a support staff, regardless of my location, I should have acceptable response time for page loads.</t>
   </si>
   <si>
-    <t>00sample</t>
-  </si>
-  <si>
     <t>High/Medium/Low</t>
   </si>
   <si>
@@ -97,75 +94,27 @@
     <t>Dynamics 365 Guides</t>
   </si>
   <si>
-    <t>Dynamics 365 Import Tool</t>
-  </si>
-  <si>
-    <t>Dynamics 365 Market Insights</t>
-  </si>
-  <si>
-    <t>Dynamics 365 Product Visualize</t>
-  </si>
-  <si>
     <t>Dynamics 365 Remote Assist</t>
   </si>
   <si>
-    <t>Dynamics 365 Retail</t>
-  </si>
-  <si>
     <t>Dynamics 365 Sales Enterprise</t>
   </si>
   <si>
-    <t>Dynamics 365 Sales Insights</t>
-  </si>
-  <si>
     <t>Dynamics 365 Sales Professional</t>
   </si>
   <si>
     <t>Dynamics 365 Supply Chain Management</t>
   </si>
   <si>
-    <t>Dynamics 365 Talent: Attract</t>
-  </si>
-  <si>
-    <t>Dynamics 365 Talent: Core HR</t>
-  </si>
-  <si>
-    <t>Dynamics 365 Talent: Onboard</t>
-  </si>
-  <si>
-    <t>Microsoft Form Pro</t>
-  </si>
-  <si>
-    <t>Dynamics 365 Product Insights</t>
-  </si>
-  <si>
-    <t>Dynamics 365 Customer Service Insights</t>
-  </si>
-  <si>
-    <t>Dynamics 365 Layout</t>
-  </si>
-  <si>
     <t>Dynamics 365 Marketing</t>
   </si>
   <si>
-    <t>Dynamics 365 Project Service Automation</t>
-  </si>
-  <si>
     <t>Dynamics 365 Finance</t>
   </si>
   <si>
     <t>Power BI</t>
   </si>
   <si>
-    <t>Power Virtual Agent</t>
-  </si>
-  <si>
-    <t>Power Apps Canvas Apps</t>
-  </si>
-  <si>
-    <t>Power Apps Model-driven Apps</t>
-  </si>
-  <si>
     <t>Power Automate</t>
   </si>
   <si>
@@ -220,15 +169,53 @@
     <t>As a C-level executive, I need to see real time metrics on the performance of the support team so I know what’s going on.</t>
   </si>
   <si>
-    <t>Power Apps Portal</t>
+    <t>Power Apps Canvas apps</t>
+  </si>
+  <si>
+    <t>Power Apps Model-driven apps</t>
+  </si>
+  <si>
+    <t>Power Pages</t>
+  </si>
+  <si>
+    <t>Power Virtual Agents</t>
+  </si>
+  <si>
+    <t>Dynamics 365 HR</t>
+  </si>
+  <si>
+    <t>Dynamics 365 Project Operations</t>
+  </si>
+  <si>
+    <t>Dynamics 365 Sales Premium</t>
+  </si>
+  <si>
+    <t>Dynamics 365 Commerce</t>
+  </si>
+  <si>
+    <t>Dynamics 365 Customer Voice</t>
+  </si>
+  <si>
+    <t>Dynamics 365 Customer Service OmniChannel</t>
+  </si>
+  <si>
+    <t>Microsoft Dataverse</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -308,11 +295,8 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
@@ -324,6 +308,10 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -631,7 +619,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme 2013 - 2022" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -643,7 +631,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -651,179 +639,152 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F14C17BB-8A79-4424-BD4B-A71907C20423}">
-  <dimension ref="A1:B32"/>
+  <dimension ref="A1:B26"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A30" sqref="A30"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight" activeCell="B1" sqref="B1"/>
+      <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
+      <selection pane="bottomRight" activeCell="A15" sqref="A15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="44.5546875" customWidth="1"/>
-    <col min="2" max="2" width="34.77734375" customWidth="1"/>
+    <col min="1" max="1" width="44.5703125" customWidth="1"/>
+    <col min="2" max="2" width="34.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A1" t="s">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="B1" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="B1" t="s">
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A2" t="s">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A3" t="s">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A4" t="s">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A5" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A6" t="s">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A7" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A8" t="s">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A9" t="s">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A10" t="s">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A11" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A12" t="s">
+    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A13" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A14" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A15" t="s">
+    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A16" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A17" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.3">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="20" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="21" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="22" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="23" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A20" t="s">
+    <row r="24" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="25" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A21" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="22" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A22" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="23" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A23" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="24" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A24" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="25" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A25" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="26" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="27" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A27" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="28" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A28" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="29" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A29" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="30" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A30" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="31" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A31" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="32" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A32" t="s">
-        <v>43</v>
+        <v>54</v>
       </c>
     </row>
   </sheetData>
@@ -836,201 +797,202 @@
   <dimension ref="A1:F20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B11" sqref="B11"/>
+      <pane xSplit="2" ySplit="2" topLeftCell="C3" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight" activeCell="C1" sqref="C1"/>
+      <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
+      <selection pane="bottomRight" activeCell="C1" sqref="C1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="9.33203125" customWidth="1"/>
-    <col min="2" max="2" width="50.109375" customWidth="1"/>
-    <col min="3" max="3" width="18.88671875" customWidth="1"/>
-    <col min="4" max="4" width="19.77734375" customWidth="1"/>
-    <col min="5" max="5" width="29.44140625" customWidth="1"/>
-    <col min="6" max="6" width="34.5546875" customWidth="1"/>
+    <col min="1" max="1" width="9.28515625" customWidth="1"/>
+    <col min="2" max="2" width="50.140625" customWidth="1"/>
+    <col min="3" max="3" width="18.85546875" customWidth="1"/>
+    <col min="4" max="4" width="19.7109375" customWidth="1"/>
+    <col min="5" max="5" width="29.42578125" customWidth="1"/>
+    <col min="6" max="6" width="34.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C1" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="D1" t="s">
+      <c r="D1" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="E1" t="s">
+      <c r="E1" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="F1" t="s">
+      <c r="F1" s="5" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A2" t="s">
+    <row r="2" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="5"/>
+      <c r="B2" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="C2" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="B2" t="s">
+      <c r="D2" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="E2" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="C2" t="s">
+      <c r="F2" s="5" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" ht="60.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="1">
+        <v>1</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="3">
+        <v>2</v>
+      </c>
+      <c r="B4" s="4" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="3">
+        <v>3</v>
+      </c>
+      <c r="B5" s="4" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="3">
+        <v>4</v>
+      </c>
+      <c r="B6" s="4" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" ht="60.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="3">
+        <v>5</v>
+      </c>
+      <c r="B7" s="4" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="3">
+        <v>6</v>
+      </c>
+      <c r="B8" s="4" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" ht="75.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="3">
+        <v>7</v>
+      </c>
+      <c r="B9" s="4" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" ht="60.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="3">
         <v>8</v>
       </c>
-      <c r="D2" t="s">
-        <v>8</v>
-      </c>
-      <c r="E2" t="s">
+      <c r="B10" s="4" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" ht="60.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="3">
+        <v>9</v>
+      </c>
+      <c r="B11" s="4" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="3">
         <v>10</v>
       </c>
-      <c r="F2" t="s">
+      <c r="B12" s="4" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A13" s="3">
         <v>11</v>
       </c>
-    </row>
-    <row r="3" spans="1:6" ht="58.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A3" s="2">
-        <v>1</v>
-      </c>
-      <c r="B3" s="3" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" ht="43.8" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A4" s="4">
-        <v>2</v>
-      </c>
-      <c r="B4" s="5" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" ht="43.8" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A5" s="4">
-        <v>3</v>
-      </c>
-      <c r="B5" s="5" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A6" s="4">
-        <v>4</v>
-      </c>
-      <c r="B6" s="5" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" ht="43.8" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A7" s="4">
-        <v>5</v>
-      </c>
-      <c r="B7" s="5" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A8" s="4">
+      <c r="B13" s="4" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A14" s="3">
+        <v>12</v>
+      </c>
+      <c r="B14" s="4" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" ht="60.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A15" s="3">
+        <v>13</v>
+      </c>
+      <c r="B15" s="4" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A16" s="3">
+        <v>14</v>
+      </c>
+      <c r="B16" s="4" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A17" s="3">
+        <v>15</v>
+      </c>
+      <c r="B17" s="4" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" ht="60.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A18" s="3">
+        <v>16</v>
+      </c>
+      <c r="B18" s="4" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A19" s="3">
+        <v>17</v>
+      </c>
+      <c r="B19" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="B8" s="5" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" ht="72.599999999999994" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A9" s="4">
-        <v>7</v>
-      </c>
-      <c r="B9" s="5" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" ht="58.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A10" s="4">
-        <v>8</v>
-      </c>
-      <c r="B10" s="5" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6" ht="58.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A11" s="4">
-        <v>9</v>
-      </c>
-      <c r="B11" s="5" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6" ht="43.8" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A12" s="4">
-        <v>10</v>
-      </c>
-      <c r="B12" s="5" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6" ht="43.8" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A13" s="4">
-        <v>11</v>
-      </c>
-      <c r="B13" s="5" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6" ht="43.8" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A14" s="4">
-        <v>12</v>
-      </c>
-      <c r="B14" s="5" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6" ht="43.8" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A15" s="4">
-        <v>13</v>
-      </c>
-      <c r="B15" s="5" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="16" spans="1:6" ht="43.8" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A16" s="4">
-        <v>14</v>
-      </c>
-      <c r="B16" s="5" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A17" s="4">
-        <v>15</v>
-      </c>
-      <c r="B17" s="5" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="18" spans="1:2" ht="58.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A18" s="4">
-        <v>16</v>
-      </c>
-      <c r="B18" s="5" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="19" spans="1:2" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A19" s="4">
-        <v>17</v>
-      </c>
-      <c r="B19" s="5" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="20" spans="1:2" ht="43.8" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A20" s="4">
+    </row>
+    <row r="20" spans="1:2" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A20" s="3">
         <v>18</v>
       </c>
-      <c r="B20" s="5" t="s">
-        <v>60</v>
+      <c r="B20" s="4" t="s">
+        <v>43</v>
       </c>
     </row>
   </sheetData>
@@ -1207,13 +1169,36 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{3CE8BBED-39AD-43D2-88AD-54EE6D2D5B47}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{3CE8BBED-39AD-43D2-88AD-54EE6D2D5B47}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="f0391fbe-9a8a-45b6-bc24-0f8c01e689a4"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E922264D-C5DF-4756-B0E1-FB0BD4A17811}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E922264D-C5DF-4756-B0E1-FB0BD4A17811}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{768A339D-4F2D-4894-B120-C492B8BCE913}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{768A339D-4F2D-4894-B120-C492B8BCE913}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>